--- a/Progetto Micro/Giochi_READY_COMMON_TREND.xlsx
+++ b/Progetto Micro/Giochi_READY_COMMON_TREND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Progetto Micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAA510-1943-478B-86BB-EC54F6E047E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC9587-F6B6-40FF-92CE-712F324EAF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1485" windowWidth="28800" windowHeight="14115" xr2:uid="{14D9B97F-2BAB-B144-8F19-1070E8E9DEA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE07B02-8028-1B4E-932E-DB1C3CF1EB23}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -449,17 +452,17 @@
       <c r="C2">
         <v>103.1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -482,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -505,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,16 +798,16 @@
         <v>109.3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,16 +821,16 @@
         <v>90.8</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,29 +991,6 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B26">
-        <v>98.5</v>
-      </c>
-      <c r="C26">
-        <v>97</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
         <v>24</v>
       </c>
     </row>
